--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,121 +46,118 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>work</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>product</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
@@ -169,21 +166,12 @@
     <t>use</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -193,9 +181,6 @@
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -220,10 +205,10 @@
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
   </si>
   <si>
     <t>friends</t>
@@ -596,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7419354838709677</v>
+        <v>0.78125</v>
       </c>
       <c r="C5">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.8148148148148148</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.734375</v>
+        <v>0.7766990291262136</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.6451612903225806</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7184466019417476</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="C7">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D7">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.6226415094339622</v>
+        <v>0.515625</v>
       </c>
       <c r="L7">
         <v>33</v>
@@ -907,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.453125</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6904761904761905</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.3768115942028986</v>
+        <v>0.3434426229508197</v>
       </c>
       <c r="L9">
-        <v>26</v>
+        <v>419</v>
       </c>
       <c r="M9">
-        <v>26</v>
+        <v>419</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>43</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.340983606557377</v>
+        <v>0.2959770114942529</v>
       </c>
       <c r="L10">
-        <v>416</v>
+        <v>206</v>
       </c>
       <c r="M10">
-        <v>416</v>
+        <v>207</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1054,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>804</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6554054054054054</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.3041606886657102</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L11">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>485</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6181818181818182</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.2593360995850623</v>
+        <v>0.225</v>
       </c>
       <c r="L12">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>357</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5798319327731093</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C13">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.2583333333333334</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>89</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,38 +1200,38 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5370370370370371</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14">
+        <v>0.1746987951807229</v>
+      </c>
+      <c r="L14">
         <v>29</v>
       </c>
-      <c r="D14">
+      <c r="M14">
         <v>29</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14">
-        <v>0.2108433734939759</v>
-      </c>
-      <c r="L14">
-        <v>35</v>
-      </c>
-      <c r="M14">
-        <v>35</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1257,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5111111111111111</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15">
+        <v>0.1164021164021164</v>
+      </c>
+      <c r="L15">
         <v>22</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15">
-        <v>0.1498470948012232</v>
-      </c>
-      <c r="L15">
-        <v>49</v>
-      </c>
       <c r="M15">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>278</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5101449275362319</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C16">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D16">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.1164021164021164</v>
+        <v>0.1044176706827309</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>167</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.09236947791164658</v>
+        <v>0.08326029798422437</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1407,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>226</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4842105263157895</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.07975460122699386</v>
+        <v>0.03893575600259572</v>
       </c>
       <c r="L18">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="M18">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1457,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1050</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1465,13 +1450,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4819277108433735</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1483,31 +1468,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>43</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19">
-        <v>0.03309539260220636</v>
-      </c>
-      <c r="L19">
-        <v>51</v>
-      </c>
-      <c r="M19">
-        <v>51</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1490</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,13 +1476,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4814814814814815</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1533,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,13 +1502,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4761904761904762</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1559,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1567,13 +1528,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4173228346456693</v>
+        <v>0.390625</v>
       </c>
       <c r="C22">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1585,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1593,13 +1554,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3666666666666666</v>
+        <v>0.3203125</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1611,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1619,13 +1580,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.360655737704918</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1637,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1645,13 +1606,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.359375</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1663,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1671,13 +1632,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3258426966292135</v>
+        <v>0.2623762376237624</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1689,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1697,13 +1658,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3080568720379147</v>
+        <v>0.2559241706161137</v>
       </c>
       <c r="C27">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1715,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1723,13 +1684,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2920792079207921</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C28">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1741,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1749,13 +1710,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2890625</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1767,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>91</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1775,13 +1736,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2735042735042735</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1793,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>85</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1801,13 +1762,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2653061224489796</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1819,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>72</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1827,13 +1788,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2319587628865979</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C32">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D32">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1845,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>149</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1853,13 +1814,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2065217391304348</v>
+        <v>0.172106824925816</v>
       </c>
       <c r="C33">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="D33">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1871,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>219</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1879,13 +1840,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.189873417721519</v>
+        <v>0.16</v>
       </c>
       <c r="C34">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1897,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>256</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1905,13 +1866,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1740506329113924</v>
+        <v>0.16</v>
       </c>
       <c r="C35">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1923,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>261</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1931,13 +1892,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1714285714285714</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1949,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1957,13 +1918,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1706231454005935</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="C37">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1975,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>559</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1983,13 +1944,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.16</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C38">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2001,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2009,13 +1970,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1495327102803738</v>
+        <v>0.1343612334801762</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2027,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>182</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2035,13 +1996,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1485714285714286</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2053,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2061,13 +2022,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1464968152866242</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2079,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>134</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2087,25 +2048,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1412103746397695</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C42">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E42">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>298</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2113,13 +2074,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1365638766519824</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="C43">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2131,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>392</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2139,13 +2100,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1048387096774194</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2157,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>222</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2165,25 +2126,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1041095890410959</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="C45">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>327</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2191,13 +2152,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.08614232209737828</v>
+        <v>0.0645879732739421</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2209,111 +2170,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.06578947368421052</v>
-      </c>
-      <c r="C47">
-        <v>40</v>
-      </c>
-      <c r="D47">
-        <v>40</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.06197183098591549</v>
-      </c>
-      <c r="C48">
-        <v>22</v>
-      </c>
-      <c r="D48">
-        <v>22</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.06013363028953229</v>
-      </c>
-      <c r="C49">
-        <v>27</v>
-      </c>
-      <c r="D49">
-        <v>27</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.02911392405063291</v>
-      </c>
-      <c r="C50">
-        <v>23</v>
-      </c>
-      <c r="D50">
-        <v>27</v>
-      </c>
-      <c r="E50">
-        <v>0.15</v>
-      </c>
-      <c r="F50">
-        <v>0.85</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>767</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
